--- a/sources/excels/CPE_Courses.xlsx
+++ b/sources/excels/CPE_Courses.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajdan\OneDrive\Documents\GitHub\fixedOOP2\Final-OOP2\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajdan\OneDrive\Documents\GitHub\fixedOOP2\Final-OOP2\sources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C268A-766D-4BE4-BA85-7212A35EEF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD916D9-58F5-4F38-AB46-436DAFA7D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AA50959-B7E8-463A-BB77-82FF90CA8362}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{1AA50959-B7E8-463A-BB77-82FF90CA8362}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$62</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="235">
   <si>
     <t>Course Name</t>
   </si>
@@ -458,9 +461,6 @@
     <t>On-the-Job Training for CpE</t>
   </si>
   <si>
-    <t>Courses: Programming Logic, Object-Oriented Programming, Data Structures, Software Design</t>
-  </si>
-  <si>
     <t>Software Developer</t>
   </si>
   <si>
@@ -479,9 +479,6 @@
     <t>DevOps Engineer</t>
   </si>
   <si>
-    <t>Courses: Engineering Data Analysis, Numerical Methods, Optimization Techniques, Emerging Technologies</t>
-  </si>
-  <si>
     <t>Data Scientist</t>
   </si>
   <si>
@@ -500,9 +497,6 @@
     <t>Computer Vision Specialist</t>
   </si>
   <si>
-    <t>Courses: Embedded Systems, Microprocessor Systems, Logic Circuits, Digital Signal Processing</t>
-  </si>
-  <si>
     <t>Embedded Systems Engineer</t>
   </si>
   <si>
@@ -521,9 +515,6 @@
     <t>Sensor Integration Specialist</t>
   </si>
   <si>
-    <t>Courses: Computer Networks 1–3, Operating Systems, Data Communications</t>
-  </si>
-  <si>
     <t>Network Engineer</t>
   </si>
   <si>
@@ -542,9 +533,6 @@
     <t>IT Support Specialist</t>
   </si>
   <si>
-    <t>Courses: Electronic Circuits, Control Systems, Mixed Signals, Digital Signal Processing</t>
-  </si>
-  <si>
     <t>Electronics Engineer</t>
   </si>
   <si>
@@ -560,9 +548,6 @@
     <t>PCB Design Engineer</t>
   </si>
   <si>
-    <t>Courses: Computer-Aided Drafting, CpE Drafting and Design</t>
-  </si>
-  <si>
     <t>CAD Designer</t>
   </si>
   <si>
@@ -572,15 +557,9 @@
     <t>Technical Illustrator</t>
   </si>
   <si>
-    <t>Mechanical Draftsman</t>
-  </si>
-  <si>
     <t>Design Validation Engineer</t>
   </si>
   <si>
-    <t>Courses: Plant Visits, On-the-Job Training, CpE Design Projects</t>
-  </si>
-  <si>
     <t>Field Service Engineer</t>
   </si>
   <si>
@@ -621,13 +600,157 @@
   </si>
   <si>
     <t>Specialization</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Unusable</t>
+  </si>
+  <si>
+    <t>MATH 006 – Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>MATH 013 – Linear Algebra with MATLAB</t>
+  </si>
+  <si>
+    <t>MATH 019A – Engineering Data Analysis</t>
+  </si>
+  <si>
+    <t>MATH 020 – Numerical Methods</t>
+  </si>
+  <si>
+    <t>CPE 010 – Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>CPE 011 – Database Management System</t>
+  </si>
+  <si>
+    <t>CPE 015 – Optimization Techniques</t>
+  </si>
+  <si>
+    <t>CPE 027 – Digital Signal Processing and Application</t>
+  </si>
+  <si>
+    <t>CPE 028 – Developing Applications and Automation</t>
+  </si>
+  <si>
+    <t>CPE 013 – Logic Circuits and Design</t>
+  </si>
+  <si>
+    <t>CPE 014 – Embedded Systems</t>
+  </si>
+  <si>
+    <t>CPE 016 – Introduction to HDL</t>
+  </si>
+  <si>
+    <t>CPE 017 – Fundamentals of Mixed Signals and Sensors</t>
+  </si>
+  <si>
+    <t>CPE 006 – Microprocessor Systems</t>
+  </si>
+  <si>
+    <t>CPE 021 – Computer Architecture and Organization</t>
+  </si>
+  <si>
+    <t>CPE 010 – Data Structures and Algorithms (used for embedded programming)</t>
+  </si>
+  <si>
+    <t>CPE 003 – Computer-Aided Drafting</t>
+  </si>
+  <si>
+    <t>CPE 304 – Computer Engineering Drafting and Design</t>
+  </si>
+  <si>
+    <t>ECE 027 – Fundamentals of Electronic Circuits</t>
+  </si>
+  <si>
+    <t>EE 041 – Fundamentals of Electrical Circuits</t>
+  </si>
+  <si>
+    <t>TECH 101 – Introduction to Engineering Entrepreneurship (for project documentation/design)</t>
+  </si>
+  <si>
+    <t>ECE 028 – Feedback and Control Systems</t>
+  </si>
+  <si>
+    <t>CPE 302 – Computer Networks 1</t>
+  </si>
+  <si>
+    <t>CPE 401 – Computer Networks 2</t>
+  </si>
+  <si>
+    <t>CPE 404 – Computer Networks 3</t>
+  </si>
+  <si>
+    <t>CPE 022 – Operating Systems</t>
+  </si>
+  <si>
+    <t>CPE 201A – Computer System Administration and Troubleshooting</t>
+  </si>
+  <si>
+    <t>CPE 012 – Data and Digital Communications</t>
+  </si>
+  <si>
+    <t>CPE 020 – Methods of Research (for cybersecurity analysis/reporting)</t>
+  </si>
+  <si>
+    <t>CPE 007 – Programming Logic and Design</t>
+  </si>
+  <si>
+    <t>CPE 009 – Object Oriented Programming</t>
+  </si>
+  <si>
+    <t>CPE 025 – Software Design</t>
+  </si>
+  <si>
+    <t>MATH 013 – Linear Algebra with MATLAB (logic foundations)</t>
+  </si>
+  <si>
+    <t>MATH 020 – Numerical Methods (for algorithmic problem solving)</t>
+  </si>
+  <si>
+    <t>TECH 101 – Introduction to Engineering Entrepreneurship</t>
+  </si>
+  <si>
+    <t>EECO 001 – Engineering Economics</t>
+  </si>
+  <si>
+    <t>CPE 500 – On-the-Job Training for CpE</t>
+  </si>
+  <si>
+    <t>CPE 502 – Plant Visits and Seminars for CPE</t>
+  </si>
+  <si>
+    <t>CPE 023 – CpE Laws and Professional Practice</t>
+  </si>
+  <si>
+    <t>CPE 024 – Basic Occupational Health and Safety</t>
+  </si>
+  <si>
+    <t>COE 002A – Introduction to Intellectual Property</t>
+  </si>
+  <si>
+    <t>CPE 018 – Emerging Technologies 1 in CpE</t>
+  </si>
+  <si>
+    <t>CPE 019 – Emerging Technologies 2 in CpE</t>
+  </si>
+  <si>
+    <t>CPE 026 – Emerging Technologies 3 in CpE</t>
+  </si>
+  <si>
+    <t>CPE 029 – CpE Design Project 1</t>
+  </si>
+  <si>
+    <t>CPE 030 – CpE Design Project 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +765,18 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEEF0FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -664,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -679,6 +814,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,18 +1149,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A935EA-C5CE-4D69-9A2D-44E5B766BDB6}">
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="74" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="85.5703125" customWidth="1"/>
     <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
@@ -1040,8 +1177,14 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
       <c r="E1" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1051,6 +1194,15 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1059,8 +1211,14 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>187</v>
+      <c r="E3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1073,72 +1231,48 @@
       <c r="E4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="K4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="K5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="K5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>143</v>
@@ -1146,371 +1280,374 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="K6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="K6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="K7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" t="s">
-        <v>174</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>167</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>193</v>
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="L16" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L17" s="3"/>
+      <c r="K17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L19" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="K21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>150</v>
       </c>
+      <c r="K23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>153</v>
+        <v>55</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>189</v>
+        <v>63</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="L27" s="4"/>
       <c r="N27" s="3"/>
@@ -1518,13 +1655,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1537,13 +1674,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L29" s="4"/>
       <c r="N29" s="3"/>
@@ -1551,13 +1688,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L30" s="4"/>
       <c r="N30" s="3"/>
@@ -1565,13 +1702,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L31" s="4"/>
       <c r="N31" s="3"/>
@@ -1579,57 +1716,57 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>192</v>
+        <v>93</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1639,81 +1776,81 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>191</v>
+        <v>119</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1722,14 +1859,14 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1738,61 +1875,60 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>125</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>131</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>190</v>
+        <v>133</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1803,233 +1939,382 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="F56" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="6"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
+      <c r="F57" t="s">
+        <v>189</v>
       </c>
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
+      <c r="F58" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L59" s="3"/>
+      <c r="F59" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
+      <c r="F60" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L61" s="4"/>
+      <c r="F61" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L62" s="5"/>
+      <c r="F62" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="F63" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L81" s="3"/>
-    </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L109" s="4"/>
+      <c r="F64" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F65" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F66" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>183</v>
+      </c>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>207</v>
+      </c>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>208</v>
+      </c>
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
